--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Tgfa</t>
   </si>
   <si>
@@ -86,15 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3616933333333334</v>
+        <v>0.4732933333333333</v>
       </c>
       <c r="H2">
-        <v>1.08508</v>
+        <v>1.41988</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6351867741147567</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6351867741147565</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N2">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q2">
-        <v>0.6456010189644444</v>
+        <v>1.056624526906667</v>
       </c>
       <c r="R2">
-        <v>5.81040917068</v>
+        <v>9.509620742160001</v>
       </c>
       <c r="S2">
-        <v>0.2226931997744963</v>
+        <v>0.1894784929449241</v>
       </c>
       <c r="T2">
-        <v>0.2226931997744963</v>
+        <v>0.1894784929449241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3616933333333334</v>
+        <v>0.4732933333333333</v>
       </c>
       <c r="H3">
-        <v>1.08508</v>
+        <v>1.41988</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6351867741147567</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6351867741147565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +620,22 @@
         <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q3">
-        <v>1.293312518528889</v>
+        <v>1.692362386928889</v>
       </c>
       <c r="R3">
-        <v>11.63981266676</v>
+        <v>15.23126148236</v>
       </c>
       <c r="S3">
-        <v>0.4461143873682032</v>
+        <v>0.3034817633192092</v>
       </c>
       <c r="T3">
-        <v>0.4461143873682032</v>
+        <v>0.3034817633192091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,93 +643,93 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.4732933333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.41988</v>
+      </c>
+      <c r="I4">
+        <v>0.6351867741147567</v>
+      </c>
+      <c r="J4">
+        <v>0.6351867741147565</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.3616933333333334</v>
-      </c>
-      <c r="H4">
-        <v>1.08508</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N4">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q4">
-        <v>0.007380111337777779</v>
+        <v>0.7931244586222221</v>
       </c>
       <c r="R4">
-        <v>0.06642100204</v>
+        <v>7.1381201276</v>
       </c>
       <c r="S4">
-        <v>0.002545690852746758</v>
+        <v>0.1422265178506233</v>
       </c>
       <c r="T4">
-        <v>0.002545690852746758</v>
+        <v>0.1422265178506233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3616933333333334</v>
+        <v>0.2718313333333334</v>
       </c>
       <c r="H5">
-        <v>1.08508</v>
+        <v>0.8154940000000001</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3648132258852434</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3648132258852433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,90 +738,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.614068666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N5">
-        <v>7.842206000000001</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q5">
-        <v>0.945491209608889</v>
+        <v>0.6068618206786669</v>
       </c>
       <c r="R5">
-        <v>8.509420886480001</v>
+        <v>5.461756386108001</v>
       </c>
       <c r="S5">
-        <v>0.3261371290339591</v>
+        <v>0.1088250937583655</v>
       </c>
       <c r="T5">
-        <v>0.3261371290339591</v>
+        <v>0.1088250937583654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2718313333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.8154940000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.3648132258852434</v>
+      </c>
+      <c r="J6">
+        <v>0.3648132258852433</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.575715666666667</v>
+      </c>
+      <c r="N6">
+        <v>10.727147</v>
+      </c>
+      <c r="O6">
+        <v>0.4777835050834676</v>
+      </c>
+      <c r="P6">
+        <v>0.4777835050834675</v>
+      </c>
+      <c r="Q6">
+        <v>0.9719915572908892</v>
+      </c>
+      <c r="R6">
+        <v>8.747924015618</v>
+      </c>
+      <c r="S6">
+        <v>0.1743017417642584</v>
+      </c>
+      <c r="T6">
+        <v>0.1743017417642583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2718313333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.8154940000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.3648132258852434</v>
+      </c>
+      <c r="J7">
+        <v>0.3648132258852433</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3616933333333334</v>
-      </c>
-      <c r="H6">
-        <v>1.08508</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.020115</v>
-      </c>
-      <c r="N6">
-        <v>0.060345</v>
-      </c>
-      <c r="O6">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P6">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q6">
-        <v>0.007275461400000001</v>
-      </c>
-      <c r="R6">
-        <v>0.06547915260000001</v>
-      </c>
-      <c r="S6">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="T6">
-        <v>0.002509592970594532</v>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.675756666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.02727</v>
+      </c>
+      <c r="O7">
+        <v>0.2239129082132429</v>
+      </c>
+      <c r="P7">
+        <v>0.2239129082132428</v>
+      </c>
+      <c r="Q7">
+        <v>0.4555231690422222</v>
+      </c>
+      <c r="R7">
+        <v>4.09970852138</v>
+      </c>
+      <c r="S7">
+        <v>0.08168639036261954</v>
+      </c>
+      <c r="T7">
+        <v>0.08168639036261952</v>
       </c>
     </row>
   </sheetData>
